--- a/artfynd/A 48288-2020.xlsx
+++ b/artfynd/A 48288-2020.xlsx
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>694627.0455417392</v>
+        <v>694627</v>
       </c>
       <c r="R12" t="n">
-        <v>6660291.350849111</v>
+        <v>6660291</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -2256,19 +2256,9 @@
           <t>2023-08-11</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-08-11</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
